--- a/product_description_2020-02-27.xlsx
+++ b/product_description_2020-02-27.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djayaraj\Dropbox\DJShail\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -436,8 +441,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +505,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -546,7 +559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,9 +591,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,6 +626,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,14 +802,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -819,7 +841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -833,7 +855,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -847,7 +869,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,7 +883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -875,7 +897,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -889,7 +911,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -903,7 +925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -917,7 +939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -931,7 +953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -945,7 +967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -959,7 +981,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -973,7 +995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -987,7 +1009,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1001,7 +1023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1015,7 +1037,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1029,7 +1051,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1043,7 +1065,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1057,7 +1079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1071,7 +1093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1085,7 +1107,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1099,7 +1121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1113,7 +1135,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1127,7 +1149,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1141,7 +1163,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1155,7 +1177,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1169,7 +1191,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1197,7 +1219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1211,7 +1233,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1225,7 +1247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1239,7 +1261,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1253,7 +1275,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1267,7 +1289,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1281,7 +1303,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1295,7 +1317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1323,7 +1345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1351,7 +1373,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1365,7 +1387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1379,7 +1401,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1393,7 +1415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1407,7 +1429,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1421,7 +1443,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
